--- a/new_csv_offset.xlsx
+++ b/new_csv_offset.xlsx
@@ -2253,7 +2253,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>06-candy_L.mp4</v>
+        <v>06_candy_L.mp4</v>
       </c>
       <c r="B10" t="str">
         <v>06_candy_001.csv</v>
